--- a/assets/dataFiles/Nine Days Tour Packages.xlsx
+++ b/assets/dataFiles/Nine Days Tour Packages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bongu\Documents\TourNest-master\assets\dataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpha\OneDrive\Desktop\dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0038B536-B676-4D58-B420-B1F1E4E36364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C79497-61DD-41EE-9B79-05969D254209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{6FFD76FA-4796-4F4D-92D2-DB43C358506D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6FFD76FA-4796-4F4D-92D2-DB43C358506D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>BOOK</t>
   </si>
   <si>
     <t>BOOK NOW! </t>
-  </si>
-  <si>
-    <t>S.No</t>
   </si>
   <si>
     <t>VEHICLES</t>
@@ -164,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -173,19 +169,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -245,43 +228,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -321,71 +267,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -707,30 +638,30 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="66.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -743,135 +674,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9">
+        <v>40750</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B5" s="9">
         <v>40750</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
-        <v>40750</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>53000</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>53000</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>55700</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>55700</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5">
+        <v>69600</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>69600</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6">
         <v>72750</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -883,135 +791,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9">
+        <v>40350</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B5" s="9">
         <v>40350</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
-        <v>40350</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>52600</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>52600</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>55300</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>55300</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5">
+        <v>69250</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>69250</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6">
         <v>72400</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1023,135 +908,112 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" s="3" customFormat="1" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9">
+        <v>40350</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B5" s="9">
         <v>40350</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="12">
-        <v>40350</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5">
+        <v>52600</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
-        <v>52600</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5">
+        <v>55300</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
-        <v>55300</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>5</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5">
+        <v>69250</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
-        <v>69250</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>6</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6">
+      <c r="B9" s="6">
         <v>72400</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
